--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830986.8405219854</v>
+        <v>-837997.5696379797</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>134.7697018342891</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -677,7 +677,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>229.2560866091985</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722755</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>66.31620369264745</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>69.78983530797558</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>180.1128357859481</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>89.55866498713384</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>82.07188608561147</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722755</v>
       </c>
       <c r="U6" t="n">
-        <v>151.5728472065642</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>5.504438590007091</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>52.31679091869307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>140.7740108452625</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>146.8340739597078</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>130.417892858628</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.31358035889551</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
@@ -1427,13 +1427,13 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>30.53816178735488</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>9.441730522967667</v>
       </c>
       <c r="G13" t="n">
-        <v>56.16166185181174</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>40.08202373143538</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.99549867723708</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>60.0789432361309</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
@@ -1828,10 +1828,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>43.33425859422346</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484026</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838895</v>
+        <v>24.17382596575003</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828908</v>
+        <v>52.06849973565015</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043174</v>
+        <v>70.57601873167847</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459981</v>
+        <v>55.72314698196088</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643953</v>
+        <v>41.29686219380061</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931864</v>
+        <v>41.22330424667972</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908591</v>
+        <v>42.97275566644699</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147805</v>
+        <v>53.79159358883912</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805009</v>
+        <v>41.14384575541116</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922202</v>
+        <v>18.98356133658309</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367794</v>
+        <v>9.882059701039012</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920526</v>
+        <v>88.00800320656633</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1572.212130050281</v>
+        <v>1053.217181563207</v>
       </c>
       <c r="C2" t="n">
-        <v>1179.036628553212</v>
+        <v>1053.217181563207</v>
       </c>
       <c r="D2" t="n">
-        <v>793.5954997698793</v>
+        <v>1053.217181563207</v>
       </c>
       <c r="E2" t="n">
-        <v>793.5954997698793</v>
+        <v>1053.217181563207</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>917.0861696093799</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150839</v>
+        <v>1552.058346020846</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.897808704473</v>
+        <v>1552.058346020846</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596801</v>
+        <v>1726.974845685403</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.78296973775</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.78296973775</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.78296973775</v>
+        <v>1813.668821661863</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.78296973775</v>
+        <v>1813.668821661863</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.78296973775</v>
+        <v>1813.668821661863</v>
       </c>
       <c r="W2" t="n">
-        <v>1803.783934706037</v>
+        <v>1442.669786630151</v>
       </c>
       <c r="X2" t="n">
-        <v>1572.212130050281</v>
+        <v>1053.217181563207</v>
       </c>
       <c r="Y2" t="n">
-        <v>1572.212130050281</v>
+        <v>1053.217181563207</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475499</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475499</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930683</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.320530303161</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1603.579315313254</v>
+        <v>1327.194567652345</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021352</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.78296973775</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S3" t="n">
-        <v>2039.852292637619</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T3" t="n">
-        <v>1862.868480836527</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1652.805337515169</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1430.265335886236</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269.6235556316095</v>
+        <v>211.7083646903493</v>
       </c>
       <c r="C4" t="n">
-        <v>269.6235556316095</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="D4" t="n">
-        <v>113.9904425341243</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>535.6029008107853</v>
+        <v>761.0181119383474</v>
       </c>
       <c r="V4" t="n">
-        <v>269.6235556316095</v>
+        <v>495.0387667591717</v>
       </c>
       <c r="W4" t="n">
-        <v>269.6235556316095</v>
+        <v>211.7083646903493</v>
       </c>
       <c r="X4" t="n">
-        <v>269.6235556316095</v>
+        <v>211.7083646903493</v>
       </c>
       <c r="Y4" t="n">
-        <v>269.6235556316095</v>
+        <v>211.7083646903493</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1186.771001266949</v>
+        <v>1020.4035020058</v>
       </c>
       <c r="C5" t="n">
-        <v>793.5954997698793</v>
+        <v>1020.4035020058</v>
       </c>
       <c r="D5" t="n">
-        <v>793.5954997698793</v>
+        <v>929.9402040389981</v>
       </c>
       <c r="E5" t="n">
-        <v>793.5954997698793</v>
+        <v>929.9402040389981</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402611</v>
+        <v>917.0861696093799</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>588.4870060424371</v>
       </c>
       <c r="M5" t="n">
-        <v>1040.448080049574</v>
+        <v>588.4870060424371</v>
       </c>
       <c r="N5" t="n">
-        <v>1568.259363687036</v>
+        <v>1102.089684652126</v>
       </c>
       <c r="O5" t="n">
-        <v>2008.298964579364</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.78296973775</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.78296973775</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.2694146788</v>
+        <v>1870.655869043497</v>
       </c>
       <c r="T5" t="n">
-        <v>2008.2694146788</v>
+        <v>1647.155266602914</v>
       </c>
       <c r="U5" t="n">
-        <v>2008.2694146788</v>
+        <v>1391.402537037513</v>
       </c>
       <c r="V5" t="n">
-        <v>1666.162605382319</v>
+        <v>1391.402537037513</v>
       </c>
       <c r="W5" t="n">
-        <v>1666.162605382319</v>
+        <v>1020.4035020058</v>
       </c>
       <c r="X5" t="n">
-        <v>1583.261710346348</v>
+        <v>1020.4035020058</v>
       </c>
       <c r="Y5" t="n">
-        <v>1186.771001266949</v>
+        <v>1020.4035020058</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>712.7726751562662</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>562.1184447163585</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>1155.938290490838</v>
       </c>
       <c r="N6" t="n">
-        <v>1498.174658585115</v>
+        <v>1669.540969100527</v>
       </c>
       <c r="O6" t="n">
-        <v>2014.694941176096</v>
+        <v>1669.540969100527</v>
       </c>
       <c r="P6" t="n">
-        <v>2014.694941176096</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535683</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1685.847551667355</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1463.307550038422</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1233.190304171709</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1043.88322652172</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>864.5690095972276</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8543286984074</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8543286984074</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="D7" t="n">
-        <v>364.2942897186022</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="E7" t="n">
-        <v>364.2942897186022</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="F7" t="n">
-        <v>206.9683549315752</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="G7" t="n">
-        <v>206.9683549315752</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315752</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865304</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U7" t="n">
-        <v>821.0416925688844</v>
+        <v>590.8129940043366</v>
       </c>
       <c r="V7" t="n">
-        <v>555.0623473897086</v>
+        <v>324.8336488251609</v>
       </c>
       <c r="W7" t="n">
-        <v>555.0623473897086</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="X7" t="n">
-        <v>555.0623473897086</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.0623473897086</v>
+        <v>41.5032467563385</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1261.354413709946</v>
+        <v>1323.390908932847</v>
       </c>
       <c r="C8" t="n">
-        <v>1261.354413709946</v>
+        <v>930.2154074357779</v>
       </c>
       <c r="D8" t="n">
-        <v>875.9132849266141</v>
+        <v>930.2154074357779</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431587</v>
+        <v>930.2154074357779</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>513.3209689657557</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>100.1582134537588</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>100.1582134537588</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4811,13 +4811,13 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2223.45253452641</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>1999.951932085827</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>1999.951932085827</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V8" t="n">
-        <v>1657.845122789345</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W8" t="n">
-        <v>1657.845122789345</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="X8" t="n">
-        <v>1657.845122789345</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="Y8" t="n">
-        <v>1261.354413709946</v>
+        <v>1323.390908932847</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>480.1670983834975</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>195.6302165254909</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>429.7105387425078</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>195.6302165254909</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>195.6302165254909</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1688.124554843851</v>
+        <v>1374.479701206712</v>
       </c>
       <c r="C11" t="n">
-        <v>1366.745328492975</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="D11" t="n">
         <v>1053.100474855837</v>
@@ -5030,10 +5030,10 @@
         <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527723</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654572</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5072,19 +5072,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2675.578323579425</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2644.731695511389</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2345.52893562587</v>
       </c>
       <c r="X11" t="n">
-        <v>2106.065029543617</v>
+        <v>2027.872605705121</v>
       </c>
       <c r="Y11" t="n">
-        <v>1781.370595610412</v>
+        <v>1703.178171771916</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.7456042322052</v>
+        <v>155.4187662370703</v>
       </c>
       <c r="C13" t="n">
-        <v>347.7456042322052</v>
+        <v>155.4187662370703</v>
       </c>
       <c r="D13" t="n">
-        <v>263.9087662809138</v>
+        <v>155.4187662370703</v>
       </c>
       <c r="E13" t="n">
-        <v>180.1462292863102</v>
+        <v>71.65622924246671</v>
       </c>
       <c r="F13" t="n">
-        <v>180.1462292863102</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027738</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593279</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907707</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628195</v>
+        <v>793.9644698127917</v>
       </c>
       <c r="W13" t="n">
-        <v>661.345437340191</v>
+        <v>582.4303428901632</v>
       </c>
       <c r="X13" t="n">
-        <v>499.061390269368</v>
+        <v>420.1462958193401</v>
       </c>
       <c r="Y13" t="n">
-        <v>347.7456042322052</v>
+        <v>268.8305097821774</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1711.843491816804</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>815.1246131550881</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3065.469492547761</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2913.765165253372</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2729.808710834164</v>
       </c>
       <c r="V14" t="n">
-        <v>2675.578323579424</v>
+        <v>2729.808710834164</v>
       </c>
       <c r="W14" t="n">
-        <v>2376.375563693905</v>
+        <v>2430.605950948645</v>
       </c>
       <c r="X14" t="n">
-        <v>2058.719233773156</v>
+        <v>2112.949621027896</v>
       </c>
       <c r="Y14" t="n">
-        <v>2040.541962382007</v>
+        <v>1788.255187094691</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>368.0415815981109</v>
+        <v>221.8261207086607</v>
       </c>
       <c r="C16" t="n">
-        <v>269.632738810294</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="D16" t="n">
-        <v>269.632738810294</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="E16" t="n">
-        <v>208.9469375616769</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="F16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,10 +5437,10 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
@@ -5467,19 +5467,19 @@
         <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245443</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915625</v>
+        <v>741.8597555915627</v>
       </c>
       <c r="W16" t="n">
-        <v>530.325628668934</v>
+        <v>530.3256286689342</v>
       </c>
       <c r="X16" t="n">
-        <v>368.0415815981109</v>
+        <v>486.5536502909308</v>
       </c>
       <c r="Y16" t="n">
-        <v>368.0415815981109</v>
+        <v>335.2378642537681</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5552,7 +5552,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5595,22 +5595,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1286.571845448837</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1942.349816659396</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>1942.349816659396</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2347.971185375794</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343036</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655128</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072208</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964837994</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1521.202330875214</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,22 +5911,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1009.629923393023</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1665.407894603582</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605752</v>
@@ -6260,13 +6260,13 @@
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6300,7 +6300,7 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,16 +6312,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1645.563044338376</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6361,7 +6361,7 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414156</v>
@@ -6379,7 +6379,7 @@
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
@@ -6461,34 +6461,34 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388008</v>
       </c>
       <c r="K29" t="n">
-        <v>755.8323718938492</v>
+        <v>700.0178648958359</v>
       </c>
       <c r="L29" t="n">
-        <v>1342.204025341951</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1981.256287116105</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.118932483141</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>393.1040050097767</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1020.875654636458</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6598,43 +6598,43 @@
         <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303047</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057088</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835529</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766599</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041217</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1257.18324446866</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513241</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150703</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043031</v>
+        <v>2578.359340831535</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174553</v>
+        <v>3006.843833557904</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042572</v>
+        <v>3303.341514273835</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076164</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>464.3470021078692</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1092.11865173455</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1747.89662294511</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.671367692973</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404872</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245271</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652546</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597526</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834608</v>
+        <v>128.2898902407232</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431925</v>
+        <v>86.73045008374223</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076164</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>342.9206752648149</v>
       </c>
       <c r="L34" t="n">
-        <v>315.5102292245033</v>
+        <v>612.8479737408661</v>
       </c>
       <c r="M34" t="n">
-        <v>607.0749002898374</v>
+        <v>910.7916726541127</v>
       </c>
       <c r="N34" t="n">
-        <v>895.5376270481167</v>
+        <v>1093.981306685322</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145874</v>
+        <v>1256.68607372703</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1376.562239503608</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873659</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308586</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.2176684205</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250208</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395524</v>
+        <v>835.72572832737</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000945</v>
+        <v>666.3144371400726</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124421</v>
+        <v>546.1532258045808</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.02107175845</v>
+        <v>436.9602755027492</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
         <v>2405.46733722469</v>
@@ -7020,16 +7020,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1122.744905612751</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,22 +7099,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072222</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7257,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>862.5399502876207</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1490.311599914302</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,22 +7333,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1009.629923393023</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1665.407894603582</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7570,19 +7570,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P43" t="n">
         <v>1094.779966106229</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7731,19 +7731,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1122.744905612751</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1629.56928853388</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229973</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222416</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519584</v>
       </c>
       <c r="N2" t="n">
-        <v>266.1293161394345</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>326.2471704185982</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837493</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886041</v>
+        <v>458.3732307488533</v>
       </c>
       <c r="O3" t="n">
-        <v>259.9423929374724</v>
+        <v>611.4781433431201</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>197.037695336359</v>
       </c>
       <c r="M5" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920153</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>318.4671090170722</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>292.4021013970219</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886041</v>
+        <v>604.1626973083978</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>252.6932325111196</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8459,16 +8459,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>301.2346582324079</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8535,19 +8535,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>474.0454557661826</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8766,25 +8766,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>517.3131487114046</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9006,25 +9006,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>486.9652344155852</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9243,7 +9243,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9255,13 +9255,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>123.7997463922351</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O21" t="n">
-        <v>314.1682372053023</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,13 +9714,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9729,10 +9729,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>405.2384673331027</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>199.9106794075975</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>301.854937525337</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,13 +10425,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>488.8476739954107</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
@@ -10440,13 +10440,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>212.248871977908</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10604,7 +10604,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10668,19 +10668,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>424.3297954396435</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10905,7 +10905,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>461.3398360504045</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10914,13 +10914,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,13 +11136,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11151,10 +11151,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>405.2384673331027</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11379,22 +11379,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>597.3159339866204</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P45" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>233.0979055006555</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>237.06926702143</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>75.23263252145716</v>
       </c>
       <c r="G13" t="n">
-        <v>39.33153911500523</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>53.6880833821926</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>303.4519909166359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>22.84596838852666</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>117.3269480058913</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -26314,7 +26314,7 @@
         <v>144265.7424746855</v>
       </c>
       <c r="C2" t="n">
-        <v>144265.7424746855</v>
+        <v>144265.7424746854</v>
       </c>
       <c r="D2" t="n">
         <v>144265.7424746854</v>
@@ -26326,7 +26326,7 @@
         <v>127487.2187395205</v>
       </c>
       <c r="G2" t="n">
-        <v>144265.7424746853</v>
+        <v>144265.7424746854</v>
       </c>
       <c r="H2" t="n">
         <v>144265.7424746854</v>
@@ -26335,25 +26335,25 @@
         <v>144265.7424746854</v>
       </c>
       <c r="J2" t="n">
-        <v>144265.7424746852</v>
+        <v>144265.7424746851</v>
       </c>
       <c r="K2" t="n">
-        <v>144265.7424746852</v>
+        <v>144265.7424746851</v>
       </c>
       <c r="L2" t="n">
-        <v>144265.7424746853</v>
+        <v>144265.7424746855</v>
       </c>
       <c r="M2" t="n">
         <v>144265.7424746854</v>
       </c>
       <c r="N2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746853</v>
       </c>
       <c r="O2" t="n">
         <v>144265.7424746854</v>
       </c>
       <c r="P2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746855</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340553</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.4295340133</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668202</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.24177539661</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962294</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243103</v>
+        <v>173918.2775005334</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243103</v>
+        <v>173918.2775005334</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373747</v>
+        <v>74084.49552373748</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373747</v>
+        <v>74084.49552373748</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
@@ -26445,19 +26445,19 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="O4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="P4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481725</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481725</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26491,13 +26491,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
+        <v>63659.04525391951</v>
+      </c>
+      <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
-      <c r="K5" t="n">
-        <v>63659.04525391951</v>
-      </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-271829.6101814946</v>
+        <v>-268681.2595947206</v>
       </c>
       <c r="C6" t="n">
-        <v>-89624.66188963866</v>
+        <v>-94822.6025606653</v>
       </c>
       <c r="D6" t="n">
-        <v>-94487.94418351389</v>
+        <v>-102224.2334069053</v>
       </c>
       <c r="E6" t="n">
-        <v>-111905.8579581021</v>
+        <v>-112115.5895047916</v>
       </c>
       <c r="F6" t="n">
-        <v>216.7035159424995</v>
+        <v>6.971969252937498</v>
       </c>
       <c r="G6" t="n">
-        <v>-83172.76439283605</v>
+        <v>-83172.76439283584</v>
       </c>
       <c r="H6" t="n">
-        <v>-35747.43885615387</v>
+        <v>-35747.43885615389</v>
       </c>
       <c r="I6" t="n">
-        <v>-35747.43885615397</v>
+        <v>-35747.43885615389</v>
       </c>
       <c r="J6" t="n">
-        <v>-248789.3564534397</v>
+        <v>-242273.0712988668</v>
       </c>
       <c r="K6" t="n">
-        <v>-41987.20725893708</v>
+        <v>-41987.20725893717</v>
       </c>
       <c r="L6" t="n">
-        <v>-97169.79619355813</v>
+        <v>-101218.6334040301</v>
       </c>
       <c r="M6" t="n">
-        <v>-77948.26831577686</v>
+        <v>-78999.96332696512</v>
       </c>
       <c r="N6" t="n">
-        <v>-35747.43885615388</v>
+        <v>-35747.43885615401</v>
       </c>
       <c r="O6" t="n">
         <v>-63515.13289892518</v>
       </c>
       <c r="P6" t="n">
-        <v>-35747.43885615397</v>
+        <v>-35747.43885615378</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
+        <v>917.0607368443784</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443782</v>
-      </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293144</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660692</v>
+        <v>78.07030221924576</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551346</v>
+        <v>17.58004954287462</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506389</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773717</v>
+        <v>659.3622249971655</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.1268713042787</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506389</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,16 +27379,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>277.9557922510329</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>156.3019924070752</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27506,10 +27506,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>124.5704364758531</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>161.4998697153986</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>84.21338871141393</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27591,13 +27591,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>102.47156805457</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27616,10 +27616,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>292.0280525083651</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>303.4861929306622</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758531</v>
       </c>
       <c r="U6" t="n">
-        <v>56.38966468158043</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>148.5723433765033</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27792,10 +27792,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27853,16 +27853,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>84.63695481976674</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>24.07440866309744</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -28011,25 +28011,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>21.66899279496286</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>23.65888910788243</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28062,7 +28062,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28071,10 +28071,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,40 +28719,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634527699</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28983,25 +28983,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.636002634528921</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.636002634528666</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29220,28 +29220,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>5.63600263452858</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,16 +29296,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>30.27223765901306</v>
+      </c>
+      <c r="M26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="K26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="L26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
@@ -29314,10 +29314,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431647</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="K29" t="n">
-        <v>86.65052755599567</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>86.27291196566625</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>81.10808140893641</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>106.8683420224762</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>94.9764384404541</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30183,13 +30183,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>128.2979821082773</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,25 +30405,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30642,10 +30642,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30654,10 +30654,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.636002634528467</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668857</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30885,19 +30885,19 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.636002634528545</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -32488,7 +32488,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="N2" t="n">
-        <v>117.0108248016504</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>176.6833329945018</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344374</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344374</v>
+        <v>373.0011178946866</v>
       </c>
       <c r="O3" t="n">
-        <v>167.2548340485836</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>43.78952560586728</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>168.165661776147</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>200.01497934771</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>161.7050793552056</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,16 +35179,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>151.5096066346806</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>381.6583337168707</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>424.9260266620927</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>396.904887558667</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35975,13 +35975,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.81159323632111</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873196</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O21" t="n">
-        <v>221.4806783164134</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>171.4214974565487</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,13 +36291,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716078</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36449,10 +36449,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5509084442139</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716074</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.575562627224</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36610,10 +36610,10 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700718</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>107.2231205187086</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>176.3831193851016</v>
       </c>
       <c r="K29" t="n">
-        <v>449.2589679877753</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36844,16 +36844,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>216.4828246711704</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261599</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338772</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>432.8126189155241</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>299.4926067837689</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273758</v>
+        <v>75.16693519537651</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>398.7873271384925</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
@@ -37160,13 +37160,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055071</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.4415774595197</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>272.6538368444961</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>300.9532312255017</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>259.324687977533</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>338.9576825854768</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>171.421497456549</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184298</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>371.2794891934863</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37634,13 +37634,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37716,10 +37716,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37871,10 +37871,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>312.5509084442139</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133864</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37950,10 +37950,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>169.9842521716073</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38099,22 +38099,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>511.9438211324538</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.636002634529496</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38181,19 +38181,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.092766644681028</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
